--- a/data/moblie.xlsx
+++ b/data/moblie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2130" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -396,6 +396,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
